--- a/HudlAutomation/Hudl.xlsx
+++ b/HudlAutomation/Hudl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fqa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Hudl\HudlAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t xml:space="preserve">GET </t>
   </si>
@@ -87,50 +87,10 @@
     <t>Change the date and home status of a game.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Search based on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{Date}, {gameId}, {isHome}, {gameType}, {categories}, {opponent} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>For this it is imperative the database to not have any record for gameId=999999.</t>
   </si>
   <si>
     <t>Post JSON object of data to API end point.</t>
-  </si>
-  <si>
-    <t>/api/coach?Date=2016-01-01T19:00:00
-/api/coach?Date=2016-01-01T19:00:00&amp;isHome=true&amp;gameType=0
-/api/coach?gameId=123456</t>
   </si>
   <si>
     <t>/api/coach/delete?gameId=1234567</t>
@@ -609,6 +569,94 @@
   </si>
   <si>
     <t>{url}/api/coach?gameId=1234567</t>
+  </si>
+  <si>
+    <t>/api/coach?date=2016-01-01T19:00:00
+/api/coach?date=2016-01-01T19:00:00&amp;isHome=true&amp;gameType=0
+/api/coach?gameId=123456</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search based on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{date}, {gameId}, {isHome}, {gameType}, {categories}, {opponent} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Here, when placing a new game entry, the gameId is not provided.</t>
+  </si>
+  <si>
+    <t>POST
+{
+gameId: "123",
+sqlId: "123",
+date: "2019-12-01T19:00:00",
+opponent: "TestOpponent2",
+opponentId: "1234356",
+isHome: true,
+gameType: 0,
+categories: ["boxing","swimming" ]
+}</t>
+  </si>
+  <si>
+    <t>API attempts to make a new game entry without including a gameId (payload)</t>
+  </si>
+  <si>
+    <t>Coach attempts to make a new game entry without providing mandatory data.</t>
+  </si>
+  <si>
+    <t>1) Go to schedule page
+2) Go the registration form UI 
+3) Do not select the date
+4) Choose home game option
+5) Select game type
+6) Select game categories 
+7) Select opponent name
+8) Submit</t>
+  </si>
+  <si>
+    <t>Date=""
+Home Game=true
+Game Type="0"
+Game Category="swimming"
+Opponent="TestOpponent"</t>
+  </si>
+  <si>
+    <t>Submit button is disabled until date is selected.</t>
+  </si>
+  <si>
+    <t>Coach cannot recreate the same game entry that already exists.</t>
+  </si>
+  <si>
+    <t>Error: Game is already setup.</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1030,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1044,16 +1092,16 @@
     </row>
     <row r="2" spans="1:6" ht="357.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>200</v>
@@ -1062,7 +1110,7 @@
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -1080,16 +1128,16 @@
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>403</v>
@@ -1098,10 +1146,10 @@
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1116,13 +1164,13 @@
     </row>
     <row r="6" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -1134,13 +1182,13 @@
     </row>
     <row r="7" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1152,16 +1200,16 @@
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>204</v>
@@ -1170,10 +1218,10 @@
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -1188,13 +1236,13 @@
     </row>
     <row r="10" spans="1:6" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -1205,16 +1253,16 @@
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>204</v>
@@ -1222,19 +1270,36 @@
     </row>
     <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="1">
         <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1245,11 +1310,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1265,78 +1330,78 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1345,13 +1410,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1360,13 +1425,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1375,42 +1440,70 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
+    </row>
+    <row r="11" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/HudlAutomation/Hudl.xlsx
+++ b/HudlAutomation/Hudl.xlsx
@@ -379,9 +379,6 @@
     <t>Success Message: There are no upcoming games with this opponent.</t>
   </si>
   <si>
-    <t>Display: Coach sees list of all games with pagination capability and can drill down based on selection.</t>
-  </si>
-  <si>
     <t>Display: Coach sees expected game entry and opponent information against the test data provided.</t>
   </si>
   <si>
@@ -657,6 +654,9 @@
   </si>
   <si>
     <t>Error: Game is already setup.</t>
+  </si>
+  <si>
+    <t>Display: Coach sees list of all games with team information.</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1084,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1092,16 +1092,16 @@
     </row>
     <row r="2" spans="1:6" ht="357.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>200</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="6" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="7" spans="1:6" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="10" spans="1:6" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="13" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -1313,8 +1313,8 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1350,19 +1350,19 @@
         <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -1371,7 +1371,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1380,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>36</v>
@@ -1395,7 +1395,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>33</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>42</v>
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>41</v>
@@ -1440,10 +1440,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>43</v>
@@ -1452,58 +1452,58 @@
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
